--- a/bazy_danych/sniadania.xlsx
+++ b/bazy_danych/sniadania.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>https://www.kwestiasmaku.com/przepis/pieczona-owsianka-brownie</t>
   </si>
@@ -73,16 +70,43 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.kwestiasmaku.com/przepis/koktajl-bananowy</t>
+  </si>
+  <si>
+    <t>Koktajl bananowy</t>
+  </si>
+  <si>
+    <t>[["Banan", 1,0 ], ["Płatki owsiane", 75], ["Masło orzechowe", 15], ["Cukier", 30]]</t>
+  </si>
+  <si>
+    <t>Pancakes</t>
+  </si>
+  <si>
+    <t>https://www.kwestiasmaku.com/przepis/puszyste-placuszki-pancakes-z-czekolada</t>
+  </si>
+  <si>
+    <t>[["Serek homogenizowany", 200], ["Jajka", 2,0], ["Mąka", 100], ["Soda oczyszczona", 5], ["Czekolada mleczna", 50]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -106,13 +130,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,20 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="109.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -442,103 +470,131 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
